--- a/new_modules/Summary_2022-08-28_L2A.xlsx
+++ b/new_modules/Summary_2022-08-28_L2A.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0241</v>
+        <v>0.1871</v>
       </c>
       <c r="C2">
-        <v>0.0241</v>
+        <v>0.1871</v>
       </c>
       <c r="D2">
-        <v>0.0328</v>
+        <v>0.1544000059366226</v>
       </c>
       <c r="E2">
-        <v>0.1438</v>
+        <v>0.3486000001430511</v>
       </c>
       <c r="F2">
-        <v>-0.1177</v>
+        <v>0.0835999995470047</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0106</v>
+        <v>0.2145</v>
       </c>
       <c r="C3">
-        <v>0.0106</v>
+        <v>0.2145</v>
       </c>
       <c r="D3">
-        <v>0.0157</v>
+        <v>0.2126</v>
       </c>
       <c r="E3">
-        <v>0.1964</v>
+        <v>0.3691000044345856</v>
       </c>
       <c r="F3">
-        <v>-0.3781</v>
+        <v>0.03449999913573265</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0073</v>
+        <v>0.2232</v>
       </c>
       <c r="C4">
-        <v>0.0073</v>
+        <v>0.2232</v>
       </c>
       <c r="D4">
-        <v>0.0054</v>
+        <v>0.2255</v>
       </c>
       <c r="E4">
-        <v>0.1344</v>
+        <v>0.3556999862194061</v>
       </c>
       <c r="F4">
-        <v>-0.1247</v>
+        <v>0.09650000184774399</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0083</v>
+        <v>0.2214</v>
       </c>
       <c r="C5">
-        <v>0.0083</v>
+        <v>0.2214</v>
       </c>
       <c r="D5">
-        <v>0.0145</v>
+        <v>0.2158</v>
       </c>
       <c r="E5">
-        <v>0.1099</v>
+        <v>0.4212000072002411</v>
       </c>
       <c r="F5">
-        <v>-0.1902</v>
+        <v>0.1211000010371208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0587</v>
+        <v>0.2705</v>
       </c>
       <c r="C6">
-        <v>-0.0587</v>
+        <v>0.2705</v>
       </c>
       <c r="D6">
-        <v>-0.06370000000000001</v>
+        <v>0.2738</v>
       </c>
       <c r="E6">
-        <v>0.0508</v>
+        <v>0.4047999978065491</v>
       </c>
       <c r="F6">
-        <v>-0.1933</v>
+        <v>0.18019999563694</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0576</v>
+        <v>0.2618</v>
       </c>
       <c r="C7">
-        <v>-0.0576</v>
+        <v>0.2618</v>
       </c>
       <c r="D7">
-        <v>-0.06</v>
+        <v>0.2655999958515167</v>
       </c>
       <c r="E7">
-        <v>0.07530000000000001</v>
+        <v>0.3228999972343445</v>
       </c>
       <c r="F7">
-        <v>-0.1859</v>
+        <v>0.1555999964475632</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0433</v>
+        <v>0.1858</v>
       </c>
       <c r="C8">
-        <v>0.0433</v>
+        <v>0.1858</v>
       </c>
       <c r="D8">
-        <v>0.0461</v>
+        <v>0.1848</v>
       </c>
       <c r="E8">
-        <v>0.1274</v>
+        <v>0.2567999958992004</v>
       </c>
       <c r="F8">
-        <v>-0.1028</v>
+        <v>0.1035000011324883</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L2A.xlsx
+++ b/new_modules/Summary_2022-08-28_L2A.xlsx
@@ -441,19 +441,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1871</v>
+        <v>0.0871</v>
       </c>
       <c r="C2">
-        <v>0.1871</v>
+        <v>0.0871</v>
       </c>
       <c r="D2">
-        <v>0.1544000059366226</v>
+        <v>0.1059999987483025</v>
       </c>
       <c r="E2">
-        <v>0.3486000001430511</v>
+        <v>0.3151000142097473</v>
       </c>
       <c r="F2">
-        <v>0.0835999995470047</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +461,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2145</v>
+        <v>0.0726</v>
       </c>
       <c r="C3">
-        <v>0.2145</v>
+        <v>0.0726</v>
       </c>
       <c r="D3">
-        <v>0.2126</v>
+        <v>0.0513</v>
       </c>
       <c r="E3">
-        <v>0.3691000044345856</v>
+        <v>0.4611000120639801</v>
       </c>
       <c r="F3">
-        <v>0.03449999913573265</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,19 +481,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2232</v>
+        <v>0.0358</v>
       </c>
       <c r="C4">
-        <v>0.2232</v>
+        <v>0.0358</v>
       </c>
       <c r="D4">
-        <v>0.2255</v>
+        <v>0.022</v>
       </c>
       <c r="E4">
-        <v>0.3556999862194061</v>
+        <v>0.3772000074386597</v>
       </c>
       <c r="F4">
-        <v>0.09650000184774399</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2214</v>
+        <v>-0.0016</v>
       </c>
       <c r="C5">
-        <v>0.2214</v>
+        <v>-0.0016</v>
       </c>
       <c r="D5">
-        <v>0.2158</v>
+        <v>-0.0104</v>
       </c>
       <c r="E5">
-        <v>0.4212000072002411</v>
+        <v>0.2377000004053116</v>
       </c>
       <c r="F5">
-        <v>0.1211000010371208</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,19 +521,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2705</v>
+        <v>-0.06</v>
       </c>
       <c r="C6">
-        <v>0.2705</v>
+        <v>-0.06</v>
       </c>
       <c r="D6">
-        <v>0.2738</v>
+        <v>-0.0689</v>
       </c>
       <c r="E6">
-        <v>0.4047999978065491</v>
+        <v>0.2085999995470047</v>
       </c>
       <c r="F6">
-        <v>0.18019999563694</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,19 +541,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2618</v>
+        <v>-0.0613</v>
       </c>
       <c r="C7">
-        <v>0.2618</v>
+        <v>-0.0613</v>
       </c>
       <c r="D7">
-        <v>0.2655999958515167</v>
+        <v>-0.06889999657869339</v>
       </c>
       <c r="E7">
-        <v>0.3228999972343445</v>
+        <v>0.09390000253915787</v>
       </c>
       <c r="F7">
-        <v>0.1555999964475632</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,19 +561,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1858</v>
+        <v>0.0764</v>
       </c>
       <c r="C8">
-        <v>0.1858</v>
+        <v>0.0764</v>
       </c>
       <c r="D8">
-        <v>0.1848</v>
+        <v>0.0703</v>
       </c>
       <c r="E8">
-        <v>0.2567999958992004</v>
+        <v>0.2233999967575073</v>
       </c>
       <c r="F8">
-        <v>0.1035000011324883</v>
+        <v>-0.06889999657869339</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L2A.xlsx
+++ b/new_modules/Summary_2022-08-28_L2A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Загон</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>№7</t>
+  </si>
+  <si>
+    <t>Пастбище</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0871</v>
+        <v>116.1461029052734</v>
       </c>
       <c r="C2">
         <v>0.0871</v>
@@ -461,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0726</v>
+        <v>90.70700073242188</v>
       </c>
       <c r="C3">
         <v>0.0726</v>
@@ -481,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0358</v>
+        <v>30.65430068969727</v>
       </c>
       <c r="C4">
         <v>0.0358</v>
@@ -501,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.0016</v>
+        <v>-1.531499981880188</v>
       </c>
       <c r="C5">
         <v>-0.0016</v>
@@ -521,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06</v>
+        <v>-75.86190032958984</v>
       </c>
       <c r="C6">
         <v>-0.06</v>
@@ -541,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0613</v>
+        <v>-60.91680145263672</v>
       </c>
       <c r="C7">
         <v>-0.0613</v>
@@ -561,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0764</v>
+        <v>85.29180145263672</v>
       </c>
       <c r="C8">
         <v>0.0764</v>
@@ -573,6 +576,26 @@
         <v>0.2233999967575073</v>
       </c>
       <c r="F8">
+        <v>-0.06889999657869339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>184.489013671875</v>
+      </c>
+      <c r="C9">
+        <v>0.0241</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.4611000120639801</v>
+      </c>
+      <c r="F9">
         <v>-0.06889999657869339</v>
       </c>
     </row>

--- a/new_modules/Summary_2022-08-28_L2A.xlsx
+++ b/new_modules/Summary_2022-08-28_L2A.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>116.1461029052734</v>
+        <v>219.1156005859375</v>
       </c>
       <c r="C2">
-        <v>0.0871</v>
+        <v>0.1644</v>
       </c>
       <c r="D2">
-        <v>0.1059999987483025</v>
+        <v>0.1999000012874603</v>
       </c>
       <c r="E2">
-        <v>0.3151000142097473</v>
+        <v>0.5945000052452087</v>
       </c>
       <c r="F2">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>90.70700073242188</v>
+        <v>171.1233978271484</v>
       </c>
       <c r="C3">
-        <v>0.0726</v>
+        <v>0.1369</v>
       </c>
       <c r="D3">
-        <v>0.0513</v>
+        <v>0.0968</v>
       </c>
       <c r="E3">
-        <v>0.4611000120639801</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="F3">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>30.65430068969727</v>
+        <v>57.83089828491211</v>
       </c>
       <c r="C4">
-        <v>0.0358</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="D4">
-        <v>0.022</v>
+        <v>0.0414</v>
       </c>
       <c r="E4">
-        <v>0.3772000074386597</v>
+        <v>0.7114999890327454</v>
       </c>
       <c r="F4">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-1.531499981880188</v>
+        <v>-2.889300107955933</v>
       </c>
       <c r="C5">
-        <v>-0.0016</v>
+        <v>-0.003</v>
       </c>
       <c r="D5">
-        <v>-0.0104</v>
+        <v>-0.0197</v>
       </c>
       <c r="E5">
-        <v>0.2377000004053116</v>
+        <v>0.448500007390976</v>
       </c>
       <c r="F5">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-75.86190032958984</v>
+        <v>-143.1174011230469</v>
       </c>
       <c r="C6">
-        <v>-0.06</v>
+        <v>-0.1132</v>
       </c>
       <c r="D6">
-        <v>-0.0689</v>
+        <v>-0.13</v>
       </c>
       <c r="E6">
-        <v>0.2085999995470047</v>
+        <v>0.3935999870300293</v>
       </c>
       <c r="F6">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-60.91680145263672</v>
+        <v>-114.9227981567383</v>
       </c>
       <c r="C7">
-        <v>-0.0613</v>
+        <v>-0.1157</v>
       </c>
       <c r="D7">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
       <c r="E7">
-        <v>0.09390000253915787</v>
+        <v>0.1771000027656555</v>
       </c>
       <c r="F7">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>85.29180145263672</v>
+        <v>160.9073944091797</v>
       </c>
       <c r="C8">
-        <v>0.0764</v>
+        <v>0.1442</v>
       </c>
       <c r="D8">
-        <v>0.0703</v>
+        <v>0.1326</v>
       </c>
       <c r="E8">
-        <v>0.2233999967575073</v>
+        <v>0.4214999973773956</v>
       </c>
       <c r="F8">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>184.489013671875</v>
+        <v>348.0477905273438</v>
       </c>
       <c r="C9">
-        <v>0.0241</v>
+        <v>0.0454</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4611000120639801</v>
+        <v>0.8700000047683716</v>
       </c>
       <c r="F9">
-        <v>-0.06889999657869339</v>
+        <v>-0.1299999952316284</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2022-08-28_L2A.xlsx
+++ b/new_modules/Summary_2022-08-28_L2A.xlsx
@@ -444,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>219.1156005859375</v>
+        <v>369.2764892578125</v>
       </c>
       <c r="C2">
-        <v>0.1644</v>
+        <v>0.277</v>
       </c>
       <c r="D2">
-        <v>0.1999000012874603</v>
+        <v>0.2587000131607056</v>
       </c>
       <c r="E2">
-        <v>0.5945000052452087</v>
+        <v>0.7822999954223633</v>
       </c>
       <c r="F2">
-        <v>-0.1299999952316284</v>
+        <v>-0.3278999924659729</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>171.1233978271484</v>
+        <v>438.6117858886719</v>
       </c>
       <c r="C3">
-        <v>0.1369</v>
+        <v>0.3509</v>
       </c>
       <c r="D3">
-        <v>0.0968</v>
+        <v>0.2982</v>
       </c>
       <c r="E3">
-        <v>0.8700000047683716</v>
+        <v>1.218999981880188</v>
       </c>
       <c r="F3">
-        <v>-0.1299999952316284</v>
+        <v>-0.9613999724388123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>57.83089828491211</v>
+        <v>269.6650085449219</v>
       </c>
       <c r="C4">
-        <v>0.06759999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="D4">
-        <v>0.0414</v>
+        <v>0.2751</v>
       </c>
       <c r="E4">
-        <v>0.7114999890327454</v>
+        <v>1.045600056648254</v>
       </c>
       <c r="F4">
-        <v>-0.1299999952316284</v>
+        <v>-0.06830000132322311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-2.889300107955933</v>
+        <v>171.4759979248047</v>
       </c>
       <c r="C5">
-        <v>-0.003</v>
+        <v>0.1809</v>
       </c>
       <c r="D5">
-        <v>-0.0197</v>
+        <v>0.1707</v>
       </c>
       <c r="E5">
-        <v>0.448500007390976</v>
+        <v>0.6610000133514404</v>
       </c>
       <c r="F5">
-        <v>-0.1299999952316284</v>
+        <v>-0.1918999999761581</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,19 +524,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-143.1174011230469</v>
+        <v>-74.42340087890625</v>
       </c>
       <c r="C6">
-        <v>-0.1132</v>
+        <v>-0.0589</v>
       </c>
       <c r="D6">
-        <v>-0.13</v>
+        <v>-0.0435</v>
       </c>
       <c r="E6">
-        <v>0.3935999870300293</v>
+        <v>0.4988999962806702</v>
       </c>
       <c r="F6">
-        <v>-0.1299999952316284</v>
+        <v>-0.5260000228881836</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-114.9227981567383</v>
+        <v>-73.51029968261719</v>
       </c>
       <c r="C7">
-        <v>-0.1157</v>
+        <v>-0.074</v>
       </c>
       <c r="D7">
-        <v>-0.1299999952316284</v>
+        <v>-0.05979999899864197</v>
       </c>
       <c r="E7">
-        <v>0.1771000027656555</v>
+        <v>0.3449000120162964</v>
       </c>
       <c r="F7">
-        <v>-0.1299999952316284</v>
+        <v>-0.5212000012397766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,19 +564,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>160.9073944091797</v>
+        <v>380.5320129394531</v>
       </c>
       <c r="C8">
-        <v>0.1442</v>
+        <v>0.341</v>
       </c>
       <c r="D8">
-        <v>0.1326</v>
+        <v>0.3268</v>
       </c>
       <c r="E8">
-        <v>0.4214999973773956</v>
+        <v>0.767799973487854</v>
       </c>
       <c r="F8">
-        <v>-0.1299999952316284</v>
+        <v>-0.2372999936342239</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -584,19 +584,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>348.0477905273438</v>
+        <v>1481.627685546875</v>
       </c>
       <c r="C9">
-        <v>0.0454</v>
+        <v>0.1918</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1691</v>
       </c>
       <c r="E9">
-        <v>0.8700000047683716</v>
+        <v>1.218999981880188</v>
       </c>
       <c r="F9">
-        <v>-0.1299999952316284</v>
+        <v>-0.9613999724388123</v>
       </c>
     </row>
   </sheetData>
